--- a/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,7</t>
+          <t>-0,43; 0,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,95</t>
+          <t>0,56; 5,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,01</t>
+          <t>0,71; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,36</t>
+          <t>0,25; 2,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,48; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,96</t>
+          <t>0,53; 4,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,68; —</t>
+          <t>-4,01; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,42</t>
+          <t>0,04; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,33</t>
+          <t>1,44; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,37</t>
+          <t>0,96; 3,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 3,23</t>
+          <t>-0,95; 3,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 687,85</t>
+          <t>-22,37; 752,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,34; 2840,22</t>
+          <t>121,12; 2756,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,51; —</t>
+          <t>14,18; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 151,36</t>
+          <t>-23,09; 167,22</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,36</t>
+          <t>0,81; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,17</t>
+          <t>2,22; 7,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,86</t>
+          <t>2,15; 6,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,13</t>
+          <t>4,73; 11,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 423,39</t>
+          <t>18,5; 486,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,42; 547,54</t>
+          <t>64,01; 604,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,58; 394,2</t>
+          <t>53,83; 402,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 238,16</t>
+          <t>57,32; 230,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 8,03</t>
+          <t>0,44; 7,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,47</t>
+          <t>7,8; 15,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,25</t>
+          <t>6,64; 14,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,37</t>
+          <t>4,54; 11,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 178,61</t>
+          <t>3,23; 172,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>126,12; 538,21</t>
+          <t>124,53; 547,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,77; 386,88</t>
+          <t>88,91; 417,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,23; 122,73</t>
+          <t>33,71; 122,96</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 9,71</t>
+          <t>1,26; 9,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 16,05</t>
+          <t>6,94; 16,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,06; 17,24</t>
+          <t>8,81; 17,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,8; 36,98</t>
+          <t>14,09; 40,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 80,64</t>
+          <t>7,1; 80,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,19; 113,23</t>
+          <t>36,54; 112,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,45; 155,48</t>
+          <t>61,45; 161,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,76; 167,46</t>
+          <t>58,08; 185,6</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,23; 4,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,36</t>
+          <t>4,91; 7,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,56</t>
+          <t>5,0; 7,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 18,62</t>
+          <t>7,5; 19,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>56,49; 144,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>110,21; 221,93</t>
+          <t>114,83; 220,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>128,79; 250,31</t>
+          <t>122,94; 241,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>83,17; 223,57</t>
+          <t>81,86; 219,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,71</t>
+          <t>-0,43; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,33</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,11</t>
+          <t>0,69; 3,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,29</t>
+          <t>0,16; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,32</t>
+          <t>0,41; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,5</t>
+          <t>0,08; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,23</t>
+          <t>1,52; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,28</t>
+          <t>0,99; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 752,87</t>
+          <t>-9,48; 737,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>121,12; 2756,0</t>
+          <t>144,87; 3007,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,18; —</t>
+          <t>38,33; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,57</t>
+          <t>0,74; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,16</t>
+          <t>2,15; 7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 6,95</t>
+          <t>2,03; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 486,03</t>
+          <t>10,57; 429,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,01; 604,09</t>
+          <t>57,41; 595,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,83; 402,83</t>
+          <t>53,33; 416,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,85</t>
+          <t>0,24; 8,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,68</t>
+          <t>7,29; 15,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,92</t>
+          <t>6,75; 14,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 172,71</t>
+          <t>-1,81; 178,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>124,53; 547,26</t>
+          <t>122,43; 571,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>88,91; 417,4</t>
+          <t>98,57; 423,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,8</t>
+          <t>1,37; 9,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,94; 16,22</t>
+          <t>6,56; 16,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,81; 17,31</t>
+          <t>8,91; 17,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 80,73</t>
+          <t>8,14; 84,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,54; 112,97</t>
+          <t>32,9; 113,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,45; 161,46</t>
+          <t>58,86; 162,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,35</t>
+          <t>2,24; 4,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,35</t>
+          <t>4,94; 7,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,49</t>
+          <t>5,06; 7,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,49; 144,33</t>
+          <t>56,99; 148,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>114,83; 220,54</t>
+          <t>112,15; 217,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>122,94; 241,13</t>
+          <t>122,16; 244,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,91</t>
+          <t>-0,43; 0,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,93</t>
+          <t>0,6; 5,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,22</t>
+          <t>0,65; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,22</t>
+          <t>0,3; 2,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,44</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,01</t>
+          <t>0,47; 3,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,01; —</t>
+          <t>-14,68; —</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,59</t>
+          <t>0,02; 2,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,28</t>
+          <t>1,38; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,36</t>
+          <t>0,98; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,35</t>
+          <t>-1,29; 3,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 737,01</t>
+          <t>-19,93; 687,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>144,87; 3007,81</t>
+          <t>92,34; 2840,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,33; —</t>
+          <t>38,51; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 167,22</t>
+          <t>-29,48; 151,36</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,45</t>
+          <t>0,56; 5,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,24</t>
+          <t>2,28; 7,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,86</t>
+          <t>1,97; 6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,31</t>
+          <t>4,36; 11,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 429,68</t>
+          <t>6,51; 423,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,41; 595,49</t>
+          <t>64,42; 547,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,33; 416,65</t>
+          <t>42,58; 394,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,32; 230,42</t>
+          <t>52,07; 238,16</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,09</t>
+          <t>0,29; 8,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,29; 15,41</t>
+          <t>7,48; 15,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 14,76</t>
+          <t>6,57; 14,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,59</t>
+          <t>4,24; 11,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 178,84</t>
+          <t>2,2; 178,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>122,43; 571,08</t>
+          <t>126,12; 538,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>98,57; 423,72</t>
+          <t>90,77; 386,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>33,71; 122,96</t>
+          <t>31,23; 122,73</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,99</t>
+          <t>1,44; 9,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 16,37</t>
+          <t>6,61; 16,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,55</t>
+          <t>9,06; 17,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,09; 40,77</t>
+          <t>13,8; 36,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 84,93</t>
+          <t>8,83; 80,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,9; 113,75</t>
+          <t>33,19; 113,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,86; 162,32</t>
+          <t>61,45; 155,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>58,08; 185,6</t>
+          <t>56,76; 167,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,46</t>
+          <t>2,25; 4,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,32</t>
+          <t>4,83; 7,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,55</t>
+          <t>5,05; 7,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,91</t>
+          <t>7,44; 18,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>56,99; 148,52</t>
+          <t>56,27; 145,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>112,15; 217,94</t>
+          <t>110,21; 221,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>122,16; 244,04</t>
+          <t>128,79; 250,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,86; 219,6</t>
+          <t>83,17; 223,57</t>
         </is>
       </c>
     </row>
